--- a/test/test2.xlsx
+++ b/test/test2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>姓名</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>jack</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,6 +722,95 @@
       </c>
       <c r="AC3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test/test2.xlsx
+++ b/test/test2.xlsx
@@ -449,7 +449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,6 +810,273 @@
         <v>0</v>
       </c>
       <c r="AC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
         <v>0</v>
       </c>
     </row>
